--- a/api/AttendanceList.xlsx
+++ b/api/AttendanceList.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1681,6 +1681,440 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>03-06-2022</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>&lt;built-in method today of type object at 0x00007FFF6DDAED90&gt;</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>&lt;built-in method today of type object at 0x00007FFF6DDAED90&gt;</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>&lt;built-in method today of type object at 0x00007FFF6DDAED90&gt;</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
